--- a/biology/Zoologie/Caryophyllia_inornata/Caryophyllia_inornata.xlsx
+++ b/biology/Zoologie/Caryophyllia_inornata/Caryophyllia_inornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryophyllia inornata[1] est une espèce de coraux appartenant à la famille des Caryophylliidae. Ce corail est également appelé Madrépore œillet ou Petite dent de chien[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryophyllia inornata est une espèce de coraux appartenant à la famille des Caryophylliidae. Ce corail est également appelé Madrépore œillet ou Petite dent de chien.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caryophyllia inornata est présent dans l'océan Atlantique (Bretagne jusqu'aux Açores et les Canaries) et en Méditerranée[2]. Cette espèce, sciaphile, est présente sur les plafonds des grottes et surplombs, depuis la surface jusqu'à une centaine de mètres de profondeur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caryophyllia inornata est présent dans l'océan Atlantique (Bretagne jusqu'aux Açores et les Canaries) et en Méditerranée. Cette espèce, sciaphile, est présente sur les plafonds des grottes et surplombs, depuis la surface jusqu'à une centaine de mètres de profondeur.
 </t>
         </is>
       </c>
